--- a/Tables/Tables.xlsx
+++ b/Tables/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/4-Projects/INEDIT/INEDIT-WP6/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB7934C-103F-9B4B-881F-82AF446BC7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926FF54C-DE6E-214F-8C04-27B9DF5F6569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{2DE2F178-CE42-8147-A9C6-9938EAC67495}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{2DE2F178-CE42-8147-A9C6-9938EAC67495}"/>
   </bookViews>
   <sheets>
     <sheet name="Operationalization" sheetId="1" r:id="rId1"/>

--- a/Tables/Tables.xlsx
+++ b/Tables/Tables.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/4-Projects/INEDIT/INEDIT-WP6/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926FF54C-DE6E-214F-8C04-27B9DF5F6569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A5C8EF-E40C-7B40-BFD9-ECBD370710B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{2DE2F178-CE42-8147-A9C6-9938EAC67495}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="3" xr2:uid="{2DE2F178-CE42-8147-A9C6-9938EAC67495}"/>
   </bookViews>
   <sheets>
     <sheet name="Operationalization" sheetId="1" r:id="rId1"/>
+    <sheet name="SWOT" sheetId="2" r:id="rId2"/>
+    <sheet name="Deployment" sheetId="3" r:id="rId3"/>
+    <sheet name="Actors-interroges" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="207">
   <si>
     <r>
       <t>D2.3 Use case 3: 3D printing of recycled plastic</t>
@@ -429,12 +432,665 @@
       <t>ID_DIT process </t>
     </r>
   </si>
+  <si>
+    <t>Political</t>
+  </si>
+  <si>
+    <t>Nouvelles pratiques de recyclage alignées aux objectifs politiques sur le tri et le recyclage du plastique   </t>
+  </si>
+  <si>
+    <t>Respect des normes lies à la nature du plastique recyclé  </t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Weaken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manque de connaissances sur les règlementations du recyclage et impression 3D du plastique </t>
+  </si>
+  <si>
+    <t>Manque de maitrise des aspects sécurité-santé (rejets de substances toxiques) ?</t>
+  </si>
+  <si>
+    <t>Taxe sur les déchets d'emballage plastique non recyclé à compter du 1er janvier 2021 </t>
+  </si>
+  <si>
+    <t>Soutien gouvernemental : 16 millions d'euros d'aides à travers son Fonds de soutien à la vente de matières plastiques recyclées </t>
+  </si>
+  <si>
+    <t>Loi anti-gaspillage fixant à 100% l'objectif de plastique recyclé d'ici a 2025 </t>
+  </si>
+  <si>
+    <t>*Décret "3R" quinquenal fixant les objectifs de réduction, remploi et de recyclage dans un premier context pour les emaballages en plastique </t>
+  </si>
+  <si>
+    <t>Le recyclage chimique du PET aux portes de l'industrialisation (30% de matériau recyclé dans certains emballages en 2030)</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>Menace</t>
+  </si>
+  <si>
+    <t>Mise en place d’un système de consigne sur les bouteilles plastiques  </t>
+  </si>
+  <si>
+    <t>Crise COVID, crise économique et géopolitiques les matières recyclées sont moins compétitives et donc fortement concurrencées par les résines plastiques vierges </t>
+  </si>
+  <si>
+    <t>Absence de normes réglementaires pour l'industrie de l'impression 3D en plastique, ce qui, au moment où elles sont établies, peut nuire à l'activité générée autour de l'impression 3D. </t>
+  </si>
+  <si>
+    <t>Contribution à la création de valeur à partir du recyclage par le traitement des déchets (récupération de la valeur économique des déchets plastiques) </t>
+  </si>
+  <si>
+    <t>Rayon d'action réduit, ce qui permet de réaliser de grandes économies en termes de logistique (réduction des couts de transport). </t>
+  </si>
+  <si>
+    <t>Réduction de couts d’énergie (impression 3D) </t>
+  </si>
+  <si>
+    <t>Compétences spécialisées et interdisciplinaires (complémentarités) </t>
+  </si>
+  <si>
+    <t>Participation à la formation (cours et travaux pratiques avec des étudiants différentes niveaux…) </t>
+  </si>
+  <si>
+    <t>Participation à la démonstration de création d’une nouvelle filière de recyclage en circuit court et production distribuée </t>
+  </si>
+  <si>
+    <t>Création d’emploi </t>
+  </si>
+  <si>
+    <t>Economical</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>SWOT</t>
+  </si>
+  <si>
+    <t>Manque de connaissance du marché de l'impression 3D sur le territoire, des entreprises qui travaillent avec cette technologie, des ingénieurs, etc. </t>
+  </si>
+  <si>
+    <t>Coûts dus à l'incertitude sur la qualité et la quantité des déchets à traiter </t>
+  </si>
+  <si>
+    <t>Faible rentabilité économique </t>
+  </si>
+  <si>
+    <t>Manque de visibilité sur le modèle économique </t>
+  </si>
+  <si>
+    <t>Manque de connaissance sur le marché de consommation </t>
+  </si>
+  <si>
+    <t>Opportunitty</t>
+  </si>
+  <si>
+    <t>Présence de l’espace Octroi : incubation d’un nouvel espace de démonstration (Green Fab Lab) </t>
+  </si>
+  <si>
+    <t>Le marché de l'impression 3D a généré en 2020 une valeur de marché de 12, 6 milliards de dollars et d'ici 2026, ce marché es prévu pour atteindre 37,2. </t>
+  </si>
+  <si>
+    <t>Présence d’acteurs dynamique en économie circulaire (ATP, Echogestes, Octroi…) </t>
+  </si>
+  <si>
+    <t>Présence d’une culture de circuit court (exemple projet Masque …) </t>
+  </si>
+  <si>
+    <t>Selon un rapport de l’ADEME en 2016, les plastiques recyclés représentaient seulement 6% de la consommation totale de plastiques en France, alors que les papiers-cartons recyclés représentaient 66% de la consommation totale (chiffres 2014) </t>
+  </si>
+  <si>
+    <t>Le solde commercial sur les produits de plasturgie est négatif (-4 milliards d’euros pour 8 milliards d’euros d’exports). Une partie significative des plastiques entrant sur le marché n’est donc pas produite ou transformée en France.. </t>
+  </si>
+  <si>
+    <t>*L'union européenne a exporté 2,3 millions de tonnes métriques de déchets plastiques en 2018 </t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <r>
+      <t>Type​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Association​ </t>
+  </si>
+  <si>
+    <t>Association ​ </t>
+  </si>
+  <si>
+    <r>
+      <t>MCJ Bazin ​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Octroi​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Curves​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ENSGSI​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MAIF (bat.1)​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EEIGM​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Voie Navigable de France​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sport Nautique de Nancy​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MAIF (bat.2)​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stade Marcel Picot ​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>+300​ </t>
+  </si>
+  <si>
+    <t>Activités culturelles/loisirs​ </t>
+  </si>
+  <si>
+    <t>+1000​ </t>
+  </si>
+  <si>
+    <t>Tiers lieu, accueil de porteurs de projets et espaces de coworking​ </t>
+  </si>
+  <si>
+    <t>+100​ </t>
+  </si>
+  <si>
+    <t>Salle de sport​ </t>
+  </si>
+  <si>
+    <t>300​ </t>
+  </si>
+  <si>
+    <t>Ecole d’ingénieurs - Enseignement supérieur et recherche​ </t>
+  </si>
+  <si>
+    <t>50​ </t>
+  </si>
+  <si>
+    <t>Assurance mutuelle​ </t>
+  </si>
+  <si>
+    <t>500​ </t>
+  </si>
+  <si>
+    <t>Ecole d'ingénieurs - Formation et enseignement d'ingénieurs en Génie des Matériaux ​ </t>
+  </si>
+  <si>
+    <t>Gestion du réseau des voies navigables de France​ </t>
+  </si>
+  <si>
+    <t>Club de sport (aviron )​ </t>
+  </si>
+  <si>
+    <r>
+      <t>50 potentiels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​ </t>
+    </r>
+  </si>
+  <si>
+    <t>En attente​ </t>
+  </si>
+  <si>
+    <r>
+      <t>20 000 potentiels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​ </t>
+    </r>
+  </si>
+  <si>
+    <t>Club de sport (stade)​ </t>
+  </si>
+  <si>
+    <t> Name</t>
+  </si>
+  <si>
+    <r>
+      <t>Potential public​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Main activity</t>
+  </si>
+  <si>
+    <t>University </t>
+  </si>
+  <si>
+    <t>Private Enterprise</t>
+  </si>
+  <si>
+    <t>Private Entreprise​ </t>
+  </si>
+  <si>
+    <t>Public Entreprise​ </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NOM DE L’ORGANISME </t>
+  </si>
+  <si>
+    <t>TYPE DE L’ORGANISME </t>
+  </si>
+  <si>
+    <t>ACTIVITÉ PRINCIPALE </t>
+  </si>
+  <si>
+    <t>EFFECTIF EN 2021 </t>
+  </si>
+  <si>
+    <t>DATE DE CRÉATION </t>
+  </si>
+  <si>
+    <t>PÉRIMÈTRE D’ACTIVITÉ </t>
+  </si>
+  <si>
+    <t>BOUYGUES BÂTIMENT NORD EST </t>
+  </si>
+  <si>
+    <t>Entreprise </t>
+  </si>
+  <si>
+    <t>Bâtiment </t>
+  </si>
+  <si>
+    <t>200 à 999 salariés </t>
+  </si>
+  <si>
+    <t>2014 </t>
+  </si>
+  <si>
+    <t>National </t>
+  </si>
+  <si>
+    <t>DUBBLE </t>
+  </si>
+  <si>
+    <t>Entreprise  </t>
+  </si>
+  <si>
+    <t>Restauration </t>
+  </si>
+  <si>
+    <t>0 – 10 salariés </t>
+  </si>
+  <si>
+    <t>2018 </t>
+  </si>
+  <si>
+    <t>Local  </t>
+  </si>
+  <si>
+    <t>LORRAINE FAB LIVING LAB  </t>
+  </si>
+  <si>
+    <t>Université (structure associative) </t>
+  </si>
+  <si>
+    <t>Plateforme universitaire collaborative </t>
+  </si>
+  <si>
+    <t>2009 </t>
+  </si>
+  <si>
+    <t>Local </t>
+  </si>
+  <si>
+    <t>GRAND NANCY L’INNOVATION   </t>
+  </si>
+  <si>
+    <t>Agence de développement économique  </t>
+  </si>
+  <si>
+    <t>Accompagnement de projets innovants </t>
+  </si>
+  <si>
+    <t>Animation de l’écosystème de l’innovation  </t>
+  </si>
+  <si>
+    <t>Régional </t>
+  </si>
+  <si>
+    <t>ANGELÙZZO </t>
+  </si>
+  <si>
+    <t>Restauration  </t>
+  </si>
+  <si>
+    <t>11 à 49 salariés </t>
+  </si>
+  <si>
+    <t>2003 </t>
+  </si>
+  <si>
+    <t>AUCHAN LOBAU </t>
+  </si>
+  <si>
+    <t>Grande distribution </t>
+  </si>
+  <si>
+    <t>50 à 199 salariés </t>
+  </si>
+  <si>
+    <t>1968 </t>
+  </si>
+  <si>
+    <t>MCJ BAZIN  </t>
+  </si>
+  <si>
+    <t>Association (La Maison des Jeunes et de la Culture) </t>
+  </si>
+  <si>
+    <t>Activités culturelles/loisirs </t>
+  </si>
+  <si>
+    <t>1973 </t>
+  </si>
+  <si>
+    <t>EHPAD SIMON BÉNICHOU </t>
+  </si>
+  <si>
+    <t>Maison de retraite </t>
+  </si>
+  <si>
+    <t>Etablissements d'hébergement pour personnes âgées </t>
+  </si>
+  <si>
+    <t>2004 </t>
+  </si>
+  <si>
+    <t>GLORIEUSES - BROC’N VINTAGE </t>
+  </si>
+  <si>
+    <t>Magasin de mobilier et décoration vintage </t>
+  </si>
+  <si>
+    <t>AVANT-PREMIÈRE </t>
+  </si>
+  <si>
+    <t>N/A </t>
+  </si>
+  <si>
+    <t>B'COWORKER </t>
+  </si>
+  <si>
+    <t>Espace de coworking : location d'espace de travail et de salles de réunion </t>
+  </si>
+  <si>
+    <t>2020 </t>
+  </si>
+  <si>
+    <t>L'AUTRE CANAL </t>
+  </si>
+  <si>
+    <t>Salle de concerts </t>
+  </si>
+  <si>
+    <t>Organisations de concerts et spectacles  </t>
+  </si>
+  <si>
+    <t>2007 </t>
+  </si>
+  <si>
+    <t>OCTROI </t>
+  </si>
+  <si>
+    <t>Agence culturelle  </t>
+  </si>
+  <si>
+    <t>Accueil de porteurs de projets et espaces de coworking </t>
+  </si>
+  <si>
+    <t>JAYMINI &amp; CO </t>
+  </si>
+  <si>
+    <t>Activités de divertissement (jeux, ateliers…) </t>
+  </si>
+  <si>
+    <t>2019 </t>
+  </si>
+  <si>
+    <t>LA BENNE IDÉE </t>
+  </si>
+  <si>
+    <t>Association à but non lucratif  </t>
+  </si>
+  <si>
+    <t>Recyclerie (meubles et décoration)  </t>
+  </si>
+  <si>
+    <t>CURVES </t>
+  </si>
+  <si>
+    <t>Salle de sport </t>
+  </si>
+  <si>
+    <t>CARREFOUR EXPRESS </t>
+  </si>
+  <si>
+    <t>Magasin de proximité </t>
+  </si>
+  <si>
+    <t>CROSS FIT NANCY </t>
+  </si>
+  <si>
+    <t>Salle de sport  </t>
+  </si>
+  <si>
+    <t>2016 </t>
+  </si>
+  <si>
+    <t>ENSGSI </t>
+  </si>
+  <si>
+    <t>Université  </t>
+  </si>
+  <si>
+    <t>Ecole d’ingénieurs - Enseignement supérieur et recherche </t>
+  </si>
+  <si>
+    <t>1993 </t>
+  </si>
+  <si>
+    <t>STADE MARCEL PICOT </t>
+  </si>
+  <si>
+    <t>Etablissement sportif (Métropole de Nancy) </t>
+  </si>
+  <si>
+    <t>Stade de Football </t>
+  </si>
+  <si>
+    <t>2001 </t>
+  </si>
+  <si>
+    <t>EEIGM </t>
+  </si>
+  <si>
+    <t> Université </t>
+  </si>
+  <si>
+    <t>Ecole d'ingénieurs - Formation et enseignement d'ingénieurs en Génie des Matériaux  </t>
+  </si>
+  <si>
+    <t>1991 </t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Associative</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -454,6 +1110,39 @@
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -476,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -487,6 +1176,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,7 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC56EA0D-B73C-EC46-9035-EB79E6DA9ED4}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+    <sheetView zoomScale="98" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -955,4 +1652,1017 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08895249-A554-444E-AAEC-636A85AFD90C}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="189.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248D0CBE-399C-4A4C-9585-E3F82093F78E}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="165" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41515948-79B9-B64F-972D-5855D17D4BCB}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="60.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables/Tables.xlsx
+++ b/Tables/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/4-Projects/INEDIT/INEDIT-WP6/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A5C8EF-E40C-7B40-BFD9-ECBD370710B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A42C62E-C323-5041-A5A1-5CE223D61866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="3" xr2:uid="{2DE2F178-CE42-8147-A9C6-9938EAC67495}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{2DE2F178-CE42-8147-A9C6-9938EAC67495}"/>
   </bookViews>
   <sheets>
     <sheet name="Operationalization" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="216">
   <si>
     <r>
       <t>D2.3 Use case 3: 3D printing of recycled plastic</t>
@@ -562,8 +562,14 @@
     <t>ID</t>
   </si>
   <si>
-    <r>
-      <t>Type​</t>
+    <t>Association​ </t>
+  </si>
+  <si>
+    <t>Association ​ </t>
+  </si>
+  <si>
+    <r>
+      <t>MCJ Bazin ​</t>
     </r>
     <r>
       <rPr>
@@ -575,14 +581,8 @@
     </r>
   </si>
   <si>
-    <t>Association​ </t>
-  </si>
-  <si>
-    <t>Association ​ </t>
-  </si>
-  <si>
-    <r>
-      <t>MCJ Bazin ​</t>
+    <r>
+      <t>Octroi​</t>
     </r>
     <r>
       <rPr>
@@ -595,7 +595,7 @@
   </si>
   <si>
     <r>
-      <t>Octroi​</t>
+      <t>Curves​</t>
     </r>
     <r>
       <rPr>
@@ -608,7 +608,7 @@
   </si>
   <si>
     <r>
-      <t>Curves​</t>
+      <t>ENSGSI​</t>
     </r>
     <r>
       <rPr>
@@ -621,7 +621,7 @@
   </si>
   <si>
     <r>
-      <t>ENSGSI​</t>
+      <t>MAIF (bat.1)​</t>
     </r>
     <r>
       <rPr>
@@ -634,7 +634,7 @@
   </si>
   <si>
     <r>
-      <t>MAIF (bat.1)​</t>
+      <t>EEIGM​</t>
     </r>
     <r>
       <rPr>
@@ -647,7 +647,7 @@
   </si>
   <si>
     <r>
-      <t>EEIGM​</t>
+      <t>Voie Navigable de France​</t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
   </si>
   <si>
     <r>
-      <t>Voie Navigable de France​</t>
+      <t>Sport Nautique de Nancy​</t>
     </r>
     <r>
       <rPr>
@@ -673,7 +673,7 @@
   </si>
   <si>
     <r>
-      <t>Sport Nautique de Nancy​</t>
+      <t>MAIF (bat.2)​</t>
     </r>
     <r>
       <rPr>
@@ -686,7 +686,7 @@
   </si>
   <si>
     <r>
-      <t>MAIF (bat.2)​</t>
+      <t>Stade Marcel Picot ​</t>
     </r>
     <r>
       <rPr>
@@ -698,8 +698,50 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Stade Marcel Picot ​</t>
+    <t>+300​ </t>
+  </si>
+  <si>
+    <t>Activités culturelles/loisirs​ </t>
+  </si>
+  <si>
+    <t>+1000​ </t>
+  </si>
+  <si>
+    <t>Tiers lieu, accueil de porteurs de projets et espaces de coworking​ </t>
+  </si>
+  <si>
+    <t>+100​ </t>
+  </si>
+  <si>
+    <t>Salle de sport​ </t>
+  </si>
+  <si>
+    <t>300​ </t>
+  </si>
+  <si>
+    <t>Ecole d’ingénieurs - Enseignement supérieur et recherche​ </t>
+  </si>
+  <si>
+    <t>50​ </t>
+  </si>
+  <si>
+    <t>Assurance mutuelle​ </t>
+  </si>
+  <si>
+    <t>500​ </t>
+  </si>
+  <si>
+    <t>Ecole d'ingénieurs - Formation et enseignement d'ingénieurs en Génie des Matériaux ​ </t>
+  </si>
+  <si>
+    <t>Gestion du réseau des voies navigables de France​ </t>
+  </si>
+  <si>
+    <t>Club de sport (aviron )​ </t>
+  </si>
+  <si>
+    <r>
+      <t>50 potentiels</t>
     </r>
     <r>
       <rPr>
@@ -707,54 +749,15 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>+300​ </t>
-  </si>
-  <si>
-    <t>Activités culturelles/loisirs​ </t>
-  </si>
-  <si>
-    <t>+1000​ </t>
-  </si>
-  <si>
-    <t>Tiers lieu, accueil de porteurs de projets et espaces de coworking​ </t>
-  </si>
-  <si>
-    <t>+100​ </t>
-  </si>
-  <si>
-    <t>Salle de sport​ </t>
-  </si>
-  <si>
-    <t>300​ </t>
-  </si>
-  <si>
-    <t>Ecole d’ingénieurs - Enseignement supérieur et recherche​ </t>
-  </si>
-  <si>
-    <t>50​ </t>
-  </si>
-  <si>
-    <t>Assurance mutuelle​ </t>
-  </si>
-  <si>
-    <t>500​ </t>
-  </si>
-  <si>
-    <t>Ecole d'ingénieurs - Formation et enseignement d'ingénieurs en Génie des Matériaux ​ </t>
-  </si>
-  <si>
-    <t>Gestion du réseau des voies navigables de France​ </t>
-  </si>
-  <si>
-    <t>Club de sport (aviron )​ </t>
-  </si>
-  <si>
-    <r>
-      <t>50 potentiels</t>
+      <t>​ </t>
+    </r>
+  </si>
+  <si>
+    <t>En attente​ </t>
+  </si>
+  <si>
+    <r>
+      <t>20 000 potentiels</t>
     </r>
     <r>
       <rPr>
@@ -766,41 +769,12 @@
     </r>
   </si>
   <si>
-    <t>En attente​ </t>
-  </si>
-  <si>
-    <r>
-      <t>20 000 potentiels</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>​ </t>
-    </r>
-  </si>
-  <si>
     <t>Club de sport (stade)​ </t>
   </si>
   <si>
     <t> Name</t>
   </si>
   <si>
-    <r>
-      <t>Potential public​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Main activity</t>
   </si>
   <si>
@@ -1084,6 +1058,39 @@
   </si>
   <si>
     <t>Education</t>
+  </si>
+  <si>
+    <t>Activité</t>
+  </si>
+  <si>
+    <t>Cultural/leisure activities</t>
+  </si>
+  <si>
+    <t>Third place, Co-working space</t>
+  </si>
+  <si>
+    <t>Sport Gym</t>
+  </si>
+  <si>
+    <t>Engineering school</t>
+  </si>
+  <si>
+    <t>Mutual Insurance</t>
+  </si>
+  <si>
+    <t>Management of waterrways network</t>
+  </si>
+  <si>
+    <t>Sports club (Rowing)</t>
+  </si>
+  <si>
+    <t>Stadium</t>
+  </si>
+  <si>
+    <t>Type​</t>
+  </si>
+  <si>
+    <t>Potential public​</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1180,10 +1187,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1879,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248D0CBE-399C-4A4C-9585-E3F82093F78E}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="165" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1891,228 +1897,262 @@
     <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>78</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>107</v>
+      <c r="G11" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2124,537 +2164,536 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41515948-79B9-B64F-972D-5855D17D4BCB}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="60.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>136</v>
+      <c r="G7" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>136</v>
+      <c r="G8" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="E9" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>141</v>
+      <c r="G9" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="E10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>136</v>
+      <c r="G10" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>130</v>
+        <v>201</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="E14" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>136</v>
+      <c r="G14" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>141</v>
+      <c r="E15" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E18" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="E21" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>130</v>
+      <c r="G21" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="E22" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>136</v>
+      <c r="G22" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="E23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>130</v>
+      <c r="G23" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Tables.xlsx
+++ b/Tables/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/4-Projects/INEDIT/INEDIT-WP6/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A42C62E-C323-5041-A5A1-5CE223D61866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A46D35-FF39-EA47-94E9-3DDF406F809F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{2DE2F178-CE42-8147-A9C6-9938EAC67495}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27020" xr2:uid="{2DE2F178-CE42-8147-A9C6-9938EAC67495}"/>
   </bookViews>
   <sheets>
     <sheet name="Operationalization" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="213">
   <si>
     <r>
       <t>D2.3 Use case 3: 3D printing of recycled plastic</t>
@@ -317,69 +317,7 @@
   </si>
   <si>
     <r>
-      <t>STEP 9 – TEST BY USE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>The DIT innovation space enables the designer to test the just realized prototype, to ensure proper functioning in real conditions. </t>
-  </si>
-  <si>
-    <r>
       <t>6_1_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>STEP 10 – RE-DESIGN AND AFFINATION OF FABRICATION</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>If the test by use of the prototype fails, the failure is improved and corrected, repeating the process (re-involving the necessary stakeholders and the technologies used). </t>
-  </si>
-  <si>
-    <r>
-      <t>5_2_2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>STEP 11 – VALIDATION</t>
     </r>
     <r>
       <rPr>
@@ -1091,6 +1029,16 @@
   </si>
   <si>
     <t>Potential public​</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP 9 – Implementation Examples </t>
+  </si>
+  <si>
+    <t>The DIT innovation space enables the designer to test the just realized prototype, to ensure proper functioning in real conditions. 
+If the test by use of the prototype fails, the failure is improved and corrected, repeating the process (re-involving the necessary stakeholders and the technologies used). </t>
+  </si>
+  <si>
+    <t>Validation</t>
   </si>
 </sst>
 </file>
@@ -1504,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC56EA0D-B73C-EC46-9035-EB79E6DA9ED4}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1531,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="71" x14ac:dyDescent="0.2">
@@ -1622,37 +1570,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="71" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="43" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="71" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1675,198 +1612,198 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C23" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C27" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C28" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C29" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C30" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C31" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
@@ -1887,7 +1824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248D0CBE-399C-4A4C-9585-E3F82093F78E}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="165" zoomScaleNormal="265" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1904,25 +1841,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1930,22 +1867,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1953,22 +1890,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1976,22 +1913,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1999,22 +1936,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2022,22 +1959,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2045,22 +1982,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2068,22 +2005,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2091,22 +2028,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2114,22 +2051,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2137,22 +2074,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2181,117 +2118,117 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2299,7 +2236,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -2307,393 +2244,393 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
